--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-medication-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-medication-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-15T15:37:35+00:00</t>
+    <t>2025-09-17T08:51:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-medication-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-medication-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T08:51:55+00:00</t>
+    <t>2025-09-23T12:31:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-medication-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-medication-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T12:31:20+00:00</t>
+    <t>2025-09-23T14:36:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-medication-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-medication-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-23T14:36:30+00:00</t>
+    <t>2025-10-23T12:45:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3266,7 +3266,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
         <v>171</v>
       </c>
@@ -3504,7 +3504,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>197</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
         <v>264</v>
       </c>
@@ -7369,7 +7369,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>391</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
         <v>433</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
         <v>450</v>
       </c>
@@ -9025,12 +9025,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO61">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-medication-composition.xlsx
+++ b/EvolutionExempleHAS/ig/StructureDefinition-fr-on-admission-medication-composition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:45:10+00:00</t>
+    <t>2025-10-23T14:53:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
